--- a/data/trans_bre/P14B23-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14B23-Edad-trans_bre.xlsx
@@ -638,20 +638,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3165709288732905</v>
+        <v>-0.2617649222925241</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1738807313714427</v>
+        <v>0.2634735969944165</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.980232074920746</v>
+        <v>-1.879764313517657</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="n">
-        <v>-0.4759977275581251</v>
+        <v>-0.5821036523548951</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.665418300107216</v>
+        <v>-0.6560878039648035</v>
       </c>
     </row>
     <row r="6">
@@ -662,18 +662,18 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.199495815850465</v>
+        <v>1.206652032056635</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.990864686293489</v>
+        <v>3.889259885681867</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.754907271615445</v>
+        <v>5.211985056642795</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>7.320357741603392</v>
+        <v>8.196999784994233</v>
       </c>
     </row>
     <row r="7">
@@ -714,22 +714,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7642964414547239</v>
+        <v>0.8045018843938918</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005358948633663816</v>
+        <v>-0.1244068061860171</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8170636289239875</v>
+        <v>0.9269395206026081</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3887690340073702</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>-0.6029565304906176</v>
-      </c>
+        <v>0.5568306884591713</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>0.08005543024086685</v>
+        <v>0.1942055621810187</v>
       </c>
     </row>
     <row r="9">
@@ -740,20 +738,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.788047680312808</v>
+        <v>3.74425178350339</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.90093211918168</v>
+        <v>1.829239295923612</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.633237080899465</v>
+        <v>5.52309825813235</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>12.1156662351513</v>
+        <v>13.52986304518299</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>9.411911004882349</v>
+        <v>8.748862533794078</v>
       </c>
     </row>
     <row r="10">
@@ -794,22 +792,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6673011659278018</v>
+        <v>0.5563328841776209</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5238021610140199</v>
+        <v>0.4434780107951929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9783064538816583</v>
+        <v>-0.8983475467819305</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.06747869713028154</v>
+        <v>0.1017640844647771</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1549426743370642</v>
+        <v>0.1017658191001646</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1958751123664131</v>
+        <v>-0.2030114384533195</v>
       </c>
     </row>
     <row r="12">
@@ -820,22 +818,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.586471238072121</v>
+        <v>5.434112297857106</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.984142649041537</v>
+        <v>3.871514857194643</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.83984898639837</v>
+        <v>3.689316928726539</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>2.221300714491196</v>
+        <v>2.236799462781173</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.253338187821412</v>
+        <v>4.060067072227485</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.508044657349492</v>
+        <v>1.497110799745994</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +854,7 @@
         <v>4.767148176553004</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3.53120765243718</v>
+        <v>3.531207652437179</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>2.045650110493524</v>
@@ -865,7 +863,7 @@
         <v>1.577957166990345</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7176738509616345</v>
+        <v>0.7176738509616343</v>
       </c>
     </row>
     <row r="14">
@@ -876,22 +874,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.655085699607448</v>
+        <v>2.697115653684416</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.429975948978206</v>
+        <v>2.514170310484867</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8840875455365589</v>
+        <v>1.016867381899127</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.6507594550273658</v>
+        <v>0.6625095363350441</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.597988471600676</v>
+        <v>0.602390277154323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.13671379374802</v>
+        <v>0.1427021514153268</v>
       </c>
     </row>
     <row r="15">
@@ -902,22 +900,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.682032333784465</v>
+        <v>7.909815085964595</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.361012588895571</v>
+        <v>7.422015895354868</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.536306320597017</v>
+        <v>5.806044274584086</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>4.885731889841669</v>
+        <v>4.518335290207729</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.475851478168166</v>
+        <v>3.524468934627525</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.503001609466844</v>
+        <v>1.637885029822124</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +936,7 @@
         <v>7.576437722785559</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.348444378402504</v>
+        <v>6.348444378402506</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>2.104784484759515</v>
@@ -947,7 +945,7 @@
         <v>1.996617040829046</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>1.160274412982157</v>
+        <v>1.160274412982158</v>
       </c>
     </row>
     <row r="17">
@@ -958,22 +956,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.363129901471445</v>
+        <v>5.245454008873747</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.579427397511303</v>
+        <v>3.990558214626472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.852748596583401</v>
+        <v>3.455538616362742</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.9180527776264106</v>
+        <v>0.8072460360263241</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7012032513163585</v>
+        <v>0.692681813934478</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5291686035513637</v>
+        <v>0.4823729251290127</v>
       </c>
     </row>
     <row r="18">
@@ -984,22 +982,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.84776227473121</v>
+        <v>12.97975654201744</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.43243891984525</v>
+        <v>10.95639537890339</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.407633255324724</v>
+        <v>8.918453534820028</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4.720110954007224</v>
+        <v>4.26539825842583</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4.594574298330242</v>
+        <v>4.47618012822357</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.317337374819928</v>
+        <v>2.139239119463453</v>
       </c>
     </row>
     <row r="19">
@@ -1020,7 +1018,7 @@
         <v>10.26360707124782</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7.447655786029045</v>
+        <v>7.447655786029042</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>3.058306131809656</v>
@@ -1029,7 +1027,7 @@
         <v>8.858044617027984</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2.60809820879413</v>
+        <v>2.608098208794129</v>
       </c>
     </row>
     <row r="20">
@@ -1040,22 +1038,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.819344254507562</v>
+        <v>6.614279017280277</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.031325179766125</v>
+        <v>7.098398615087223</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.002404678349045</v>
+        <v>4.935842179749943</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>1.1581612297682</v>
+        <v>0.876398992470473</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>2.720208152594419</v>
+        <v>3.115367697235438</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.161379124419909</v>
+        <v>1.237181596313603</v>
       </c>
     </row>
     <row r="21">
@@ -1066,22 +1064,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>15.5331147592873</v>
+        <v>15.96039151191317</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.16609216370812</v>
+        <v>14.12646122675738</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10.04153659427046</v>
+        <v>9.828235292797089</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>7.530678481519024</v>
+        <v>8.215938961121838</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>40.07417074187092</v>
+        <v>41.23991980696547</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.282076040652171</v>
+        <v>5.412646389438699</v>
       </c>
     </row>
     <row r="22">
@@ -1102,7 +1100,7 @@
         <v>7.763977285487836</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.764014416090793</v>
+        <v>5.764014416090792</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>2.954152918115259</v>
@@ -1122,22 +1120,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.533929669481077</v>
+        <v>7.155999730926029</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.9695696313688</v>
+        <v>3.502961289042214</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.618997738527841</v>
+        <v>2.684151656127059</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.8896937678777886</v>
+        <v>0.9482978524728999</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5644980637800426</v>
+        <v>0.6033779651091986</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3451094123405417</v>
+        <v>0.3238411633858497</v>
       </c>
     </row>
     <row r="24">
@@ -1148,22 +1146,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.30803315046134</v>
+        <v>15.82250662723964</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.96899668738142</v>
+        <v>11.76877367334268</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.776074857674971</v>
+        <v>8.830986187588094</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>8.399105913162888</v>
+        <v>8.133562040713885</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>5.127583373743493</v>
+        <v>4.732783424953916</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.358124503546754</v>
+        <v>2.282021394209592</v>
       </c>
     </row>
     <row r="25">
@@ -1204,22 +1202,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.471922951789979</v>
+        <v>4.342358732881772</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.769161659766806</v>
+        <v>3.713551499470915</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.243373132751834</v>
+        <v>3.091048000640029</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1.504247634276505</v>
+        <v>1.475586430618031</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1.575791655180129</v>
+        <v>1.547651009631086</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.735016877091253</v>
+        <v>0.701644403120059</v>
       </c>
     </row>
     <row r="27">
@@ -1230,22 +1228,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.712350857960255</v>
+        <v>6.586241186278831</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.777872674229664</v>
+        <v>5.735678050789888</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.152665753454074</v>
+        <v>5.247479068541011</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.212383743676012</v>
+        <v>3.11714383168095</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.530876085565824</v>
+        <v>3.473399771265586</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.544381687045321</v>
+        <v>1.599989169076884</v>
       </c>
     </row>
     <row r="28">
